--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1920143833573574</v>
+        <v>0.2137885769057445</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.1920143833573574, 'ngram_match_score': 0.05989102809536944, 'weighted_ngram_match_score': 0.11489376451606127, 'syntax_match_score': 0.48036951501154734, 'dataflow_match_score': 0.11290322580645161}</t>
+          <t>{'codebleu': 0.2137885769057445, 'ngram_match_score': 0.05989102809536944, 'weighted_ngram_match_score': 0.11489376451606127, 'syntax_match_score': 0.48036951501154734, 'dataflow_match_score': 0.2}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2137885769057445</v>
+        <v>0.2081434156154219</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2137885769057445, 'ngram_match_score': 0.05989102809536944, 'weighted_ngram_match_score': 0.11489376451606127, 'syntax_match_score': 0.48036951501154734, 'dataflow_match_score': 0.2}</t>
+          <t>{'codebleu': 0.20814341561542193, 'ngram_match_score': 0.05989102809536944, 'weighted_ngram_match_score': 0.11489376451606127, 'syntax_match_score': 0.48036951501154734, 'dataflow_match_score': 0.1774193548387097}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
